--- a/medicine/Psychotrope/Quarts-de-chaume/Quarts-de-chaume.xlsx
+++ b/medicine/Psychotrope/Quarts-de-chaume/Quarts-de-chaume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le quarts-de-chaume est un vin blanc liquoreux d'appellation d'origine contrôlée produit sur la commune de Rochefort-sur-Loire, au bord du Layon, en Maine-et-Loire. Cette appellation, enclavée au milieu des coteaux-du-layon, fait partie du vignoble de la vallée de la Loire.
@@ -512,17 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La légende dit que le Quarts de Chaume, correspondait aux meilleurs sols du Chaume dont le produit était réservé pour le quart au seigneur du lieu. 
-Histoire contemporaine
-Ce vignoble a originellement été classé appellation d'origine contrôlée par le décret du 10 août 1954. Celui-ci a été abrogé par le décret du 9 octobre 2009[4]. Le cahier des charges de l'appellation, depuis cette date n'est plus inclus dans le décret mais est homologué par décret.
-Le dernier cahier des charges en date a été publié le 24 novembre 2011[5]. Celui-ci crée la mention « grand cru » pouvant être accolée à l'appellation Quarts-de-Chaume.
-Contentieux Chaume - Quarts-de-Chaume
-L'AOC quarts-de-chaume a été classé « grand cru » par le cahier des charges du 24 novembre 2011. À deux reprises, en 2003 et 2007, une AOC Chaume (voir cet article pour les détails) a été créée comme premier cru des Coteaux du Layon, sans modifier le statut du Quart-de-Chaumes. Craignant de voir la renommée de ce dernier diminuée, les deux AOC étant sur la même commune, le Conseil d'État a cassé les décrets de création en 2005 et 2009, respectivement. Chaume est donc redevenu, par deux fois, une des dénominations de l'AOC Coteaux-du-Layon.
-Afin de clarifier la position du Quarts-de-Chaume et offrir une solution, l'INAO, lors de sa réunion de septembre 2011[6], a validé la hiérarchie suivante (de style bourguignon) :
-l'AOC Quarts de Chaume peut être complétée de la mention « grand cru » ;
-reconnaissance de l'« AOC Coteaux-du-Layon premier cru » complétée de la dénomination géographique complémentaire « Chaume ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La légende dit que le Quarts de Chaume, correspondait aux meilleurs sols du Chaume dont le produit était réservé pour le quart au seigneur du lieu. 
+</t>
         </is>
       </c>
     </row>
@@ -547,18 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie et orographie
-L'aire géographique de l'appellation quarts-de-chaume est située sur une petite partie de la commune de Rochefort-sur-Loire, à une quinzaine de kilomètres au sud-ouest d'Angers. Les sols sont composés de schistes briovériens et de poudingues du Carbonifère[2].
-Climatologie
-La région est située en zone tempérée, sous influence océanique. Ce climat se caractérise par des hivers doux et pluvieux, ainsi que par une faible amplitude thermique.
-L'aire d'appellation quarts-de-chaume est caractérisée par une situation mésoclimatique exceptionnelle. En effet, le Layon présente à ce niveau un large méandre à l'origine de brouillards matinaux favorisant l'établissement de la pourriture noble[2].
-Pour la ville d'Angers, les relevés climatiques moyens sont :
-Source : Laméteo.org : Angers (1947-2008)[7]
+          <t>Histoire contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble a originellement été classé appellation d'origine contrôlée par le décret du 10 août 1954. Celui-ci a été abrogé par le décret du 9 octobre 2009. Le cahier des charges de l'appellation, depuis cette date n'est plus inclus dans le décret mais est homologué par décret.
+Le dernier cahier des charges en date a été publié le 24 novembre 2011. Celui-ci crée la mention « grand cru » pouvant être accolée à l'appellation Quarts-de-Chaume.
 </t>
         </is>
       </c>
@@ -584,96 +592,470 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Contentieux Chaume - Quarts-de-Chaume</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'AOC quarts-de-chaume a été classé « grand cru » par le cahier des charges du 24 novembre 2011. À deux reprises, en 2003 et 2007, une AOC Chaume (voir cet article pour les détails) a été créée comme premier cru des Coteaux du Layon, sans modifier le statut du Quart-de-Chaumes. Craignant de voir la renommée de ce dernier diminuée, les deux AOC étant sur la même commune, le Conseil d'État a cassé les décrets de création en 2005 et 2009, respectivement. Chaume est donc redevenu, par deux fois, une des dénominations de l'AOC Coteaux-du-Layon.
+Afin de clarifier la position du Quarts-de-Chaume et offrir une solution, l'INAO, lors de sa réunion de septembre 2011, a validé la hiérarchie suivante (de style bourguignon) :
+l'AOC Quarts de Chaume peut être complétée de la mention « grand cru » ;
+reconnaissance de l'« AOC Coteaux-du-Layon premier cru » complétée de la dénomination géographique complémentaire « Chaume ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire géographique de l'appellation quarts-de-chaume est située sur une petite partie de la commune de Rochefort-sur-Loire, à une quinzaine de kilomètres au sud-ouest d'Angers. Les sols sont composés de schistes briovériens et de poudingues du Carbonifère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région est située en zone tempérée, sous influence océanique. Ce climat se caractérise par des hivers doux et pluvieux, ainsi que par une faible amplitude thermique.
+L'aire d'appellation quarts-de-chaume est caractérisée par une situation mésoclimatique exceptionnelle. En effet, le Layon présente à ce niveau un large méandre à l'origine de brouillards matinaux favorisant l'établissement de la pourriture noble.
+Pour la ville d'Angers, les relevés climatiques moyens sont :
+Source : Laméteo.org : Angers (1947-2008)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble couvre une superficie de 50 hectares à l'intérieur de la commune de Rochefort-sur-Loire, dans le département de Maine-et-Loire.
-L'AOC quarts-de-chaume peut être suivi de l'indication géographique Val de Loire[8].
-Encépagement
-Le seul cépage autorisé, à l'exclusion de tout autre, est le chenin, aussi appelé pineau de la Loire[9].
-Méthodes culturales
-Les parcelles de vigne présentent en général une densité de 4 000 à 5 000 pieds à l'hectare. La densité minimale réglementaire est de 4 000 pieds à l'hectare. Les écartements maximum sont fixés à 2,5 mètres entre rangs et à 1 mètre entre pieds du même rang[2],[10].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble couvre une superficie de 50 hectares à l'intérieur de la commune de Rochefort-sur-Loire, dans le département de Maine-et-Loire.
+L'AOC quarts-de-chaume peut être suivi de l'indication géographique Val de Loire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul cépage autorisé, à l'exclusion de tout autre, est le chenin, aussi appelé pineau de la Loire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parcelles de vigne présentent en général une densité de 4 000 à 5 000 pieds à l'hectare. La densité minimale réglementaire est de 4 000 pieds à l'hectare. Les écartements maximum sont fixés à 2,5 mètres entre rangs et à 1 mètre entre pieds du même rang,.
 Les tailles utilisées sont :
 soit la taille Guyot à deux fois trois yeux ;
 soit la taille Gobelet à trois fois deux yeux.
-Les vignes doivent être taillées au plus tard le 30 avril. Il y a, au maximum, 12 yeux francs par pieds, dont quatre au maximum sur le long bois[10].
-Les vendanges s'effectuent obligatoirement de façon manuelle par tris successifs à surmaturité du raisin. Ils doivent présenter une concentration naturelle en sucre sur souche par l'action de Botrytis cinerea, la « pourriture noble », ou bien par passerillage le cas échéant[11].
-Rendements
-Le rendement maximum est fixé à 25 hectolitres à l'hectare[12].
-Titres alcoométriques volumiques et richesses en sucres
-Avant fermentation, les moûts doivent présenter une concentration en sucre au moins égale à 298 grammes par litre. 
-Après fermentation, les vins, pour pouvoir être commercialisés avec le bénéfice de l'appellation quarts-de-chaume, doivent présenter un titre alcoométrique minimum de 12 %[11].
-Vinification et élevage
-Les vins font l'objet d'un élevage dans leur chai de vinification au moins jusqu'au 15 avril qui suit l'année de la récolte.
-Tout enrichissement (dont la concentration) est interdit. L'ajout de morceaux de bois de chêne dans les cuves est également interdit. Les vins peuvent être mis en vente à partir du 1er mai qui suit l'année de la récolte[13].
-Terroirs et vins
-Les vins des quarts-de-chaume sont des vins blancs moelleux, issus à 100 % du chenin récolté manuellement à surmaturité par tris successifs.
+Les vignes doivent être taillées au plus tard le 30 avril. Il y a, au maximum, 12 yeux francs par pieds, dont quatre au maximum sur le long bois.
+Les vendanges s'effectuent obligatoirement de façon manuelle par tris successifs à surmaturité du raisin. Ils doivent présenter une concentration naturelle en sucre sur souche par l'action de Botrytis cinerea, la « pourriture noble », ou bien par passerillage le cas échéant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rendement maximum est fixé à 25 hectolitres à l'hectare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques volumiques et richesses en sucres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant fermentation, les moûts doivent présenter une concentration en sucre au moins égale à 298 grammes par litre. 
+Après fermentation, les vins, pour pouvoir être commercialisés avec le bénéfice de l'appellation quarts-de-chaume, doivent présenter un titre alcoométrique minimum de 12 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins font l'objet d'un élevage dans leur chai de vinification au moins jusqu'au 15 avril qui suit l'année de la récolte.
+Tout enrichissement (dont la concentration) est interdit. L'ajout de morceaux de bois de chêne dans les cuves est également interdit. Les vins peuvent être mis en vente à partir du 1er mai qui suit l'année de la récolte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Terroirs et vins</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins des quarts-de-chaume sont des vins blancs moelleux, issus à 100 % du chenin récolté manuellement à surmaturité par tris successifs.
 Ces vins présentent des arômes caractéristiques de coing, poire et miel. Le quarts-de-chaume présente une excellente aptitude au vieillissement (jusqu'à 20 ans, voire plus pour les meilleures bouteilles).
-Gastronomie
-Apéritif, foie gras, fromages bleus, desserts peu sucrés.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Quarts-de-chaume</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apéritif, foie gras, fromages bleus, desserts peu sucrés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire d'appellation comprend 17 viticulteurs et 19 vinificateurs (dont 17 caves particulières, 1 cave coopérative et 1 négociant)[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Quarts-de-chaume</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire d'appellation comprend 17 viticulteurs et 19 vinificateurs (dont 17 caves particulières, 1 cave coopérative et 1 négociant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Producteurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Liste non exhaustive de viticulteurs : 
 Château de Montguéret (à Nueil-sur-Layon) ;
@@ -692,31 +1074,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Quarts-de-chaume</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quarts-de-chaume</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
